--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -34,17 +34,7 @@
     <t>股票市场</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外汇市场</t>
-    </r>
+    <t>外汇市场</t>
   </si>
   <si>
     <r>
@@ -99,7 +89,7 @@
     <t>恒生指数</t>
   </si>
   <si>
-    <t>沪深300指数</t>
+    <t>上证指数</t>
   </si>
   <si>
     <t>美元</t>
@@ -127,8 +117,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -939,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -973,25 +964,34 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2180,10 +2180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -2211,7 +2211,7 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="22"/>
+      <c r="R1" s="25"/>
     </row>
     <row r="2" ht="22.55" customHeight="1" spans="1:18">
       <c r="A2" s="5" t="s">
@@ -2239,7 +2239,7 @@
       <c r="Q2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="23"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" ht="34.25" customHeight="1" spans="1:18">
       <c r="A3" s="6"/>
@@ -2250,24 +2250,24 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="21" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="21" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" ht="22.35" customHeight="1" spans="1:18">
       <c r="A4" s="8"/>
@@ -2283,1533 +2283,1149 @@
       <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:18">
       <c r="A5" s="11">
-        <v>44503</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
+        <v>44521</v>
+      </c>
+      <c r="B5" s="12">
+        <v>35601.98</v>
+      </c>
+      <c r="C5" s="12">
+        <v>16057.44</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4697.96</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7225.86</v>
+      </c>
+      <c r="F5" s="12">
+        <v>25049.97</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3560.37</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:18">
       <c r="A6" s="11">
-        <v>44504</v>
+        <v>44522</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:18">
       <c r="A7" s="11">
-        <v>44505</v>
+        <v>44523</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:18">
       <c r="A8" s="11">
-        <v>44506</v>
+        <v>44524</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:18">
       <c r="A9" s="11">
-        <v>44507</v>
+        <v>44525</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:18">
       <c r="A10" s="11">
-        <v>44508</v>
+        <v>44526</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:18">
       <c r="A11" s="11">
-        <v>44509</v>
+        <v>44527</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:18">
       <c r="A12" s="11">
-        <v>44510</v>
+        <v>44528</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:18">
       <c r="A13" s="11">
-        <v>44511</v>
+        <v>44529</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:18">
       <c r="A14" s="11">
-        <v>44512</v>
+        <v>44530</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:18">
       <c r="A15" s="11">
-        <v>44513</v>
+        <v>44531</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:18">
       <c r="A16" s="11">
-        <v>44514</v>
+        <v>44532</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:18">
       <c r="A17" s="11">
-        <v>44515</v>
+        <v>44533</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:18">
       <c r="A18" s="11">
-        <v>44516</v>
+        <v>44534</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:18">
       <c r="A19" s="11">
-        <v>44517</v>
+        <v>44535</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:18">
       <c r="A20" s="11">
-        <v>44518</v>
+        <v>44536</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:18">
       <c r="A21" s="11">
-        <v>44519</v>
+        <v>44537</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:18">
       <c r="A22" s="11">
-        <v>44520</v>
+        <v>44538</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" ht="20.05" customHeight="1" spans="1:18">
       <c r="A23" s="11">
-        <v>44521</v>
+        <v>44539</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" ht="20.05" customHeight="1" spans="1:18">
       <c r="A24" s="11">
-        <v>44522</v>
+        <v>44540</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" ht="20.05" customHeight="1" spans="1:18">
       <c r="A25" s="11">
-        <v>44523</v>
+        <v>44541</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
     </row>
     <row r="26" ht="20.05" customHeight="1" spans="1:18">
       <c r="A26" s="11">
-        <v>44524</v>
+        <v>44542</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
     </row>
     <row r="27" ht="20.05" customHeight="1" spans="1:18">
       <c r="A27" s="11">
-        <v>44525</v>
+        <v>44543</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
     </row>
     <row r="28" ht="20.05" customHeight="1" spans="1:18">
       <c r="A28" s="11">
-        <v>44526</v>
+        <v>44544</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" ht="20.05" customHeight="1" spans="1:18">
       <c r="A29" s="11">
-        <v>44527</v>
+        <v>44545</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
     </row>
     <row r="30" ht="20.05" customHeight="1" spans="1:18">
       <c r="A30" s="11">
-        <v>44528</v>
+        <v>44546</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
     </row>
     <row r="31" ht="20.05" customHeight="1" spans="1:18">
       <c r="A31" s="11">
-        <v>44529</v>
+        <v>44547</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
     </row>
     <row r="32" ht="20.05" customHeight="1" spans="1:18">
       <c r="A32" s="11">
-        <v>44530</v>
+        <v>44548</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
     </row>
     <row r="33" ht="20.05" customHeight="1" spans="1:18">
       <c r="A33" s="11">
-        <v>44531</v>
+        <v>44549</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
     </row>
     <row r="34" ht="20.05" customHeight="1" spans="1:18">
       <c r="A34" s="11">
-        <v>44532</v>
+        <v>44550</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="35" ht="20.05" customHeight="1" spans="1:18">
       <c r="A35" s="11">
-        <v>44533</v>
+        <v>44551</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
     </row>
     <row r="36" ht="20.05" customHeight="1" spans="1:18">
       <c r="A36" s="11">
-        <v>44534</v>
+        <v>44552</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
     </row>
     <row r="37" ht="20.05" customHeight="1" spans="1:18">
       <c r="A37" s="11">
-        <v>44535</v>
+        <v>44553</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
     </row>
     <row r="38" ht="20.05" customHeight="1" spans="1:18">
       <c r="A38" s="11">
-        <v>44536</v>
+        <v>44554</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
     </row>
     <row r="39" ht="20.05" customHeight="1" spans="1:18">
       <c r="A39" s="11">
-        <v>44537</v>
+        <v>44555</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
     </row>
     <row r="40" ht="20.05" customHeight="1" spans="1:18">
       <c r="A40" s="11">
-        <v>44538</v>
+        <v>44556</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
     </row>
     <row r="41" ht="20.05" customHeight="1" spans="1:18">
       <c r="A41" s="11">
-        <v>44539</v>
+        <v>44557</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
     </row>
     <row r="42" ht="20.05" customHeight="1" spans="1:18">
       <c r="A42" s="11">
-        <v>44540</v>
+        <v>44558</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
     </row>
     <row r="43" ht="20.05" customHeight="1" spans="1:18">
       <c r="A43" s="11">
-        <v>44541</v>
+        <v>44559</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
     </row>
     <row r="44" ht="20.05" customHeight="1" spans="1:18">
       <c r="A44" s="11">
-        <v>44542</v>
+        <v>44560</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
     </row>
     <row r="45" ht="20.05" customHeight="1" spans="1:18">
       <c r="A45" s="11">
-        <v>44543</v>
+        <v>44561</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
     </row>
     <row r="46" ht="20.05" customHeight="1" spans="1:18">
       <c r="A46" s="11">
-        <v>44544</v>
+        <v>44562</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
     </row>
     <row r="47" ht="20.05" customHeight="1" spans="1:18">
       <c r="A47" s="11">
-        <v>44545</v>
+        <v>44563</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
     </row>
     <row r="48" ht="20.05" customHeight="1" spans="1:18">
       <c r="A48" s="11">
-        <v>44546</v>
+        <v>44564</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
     </row>
     <row r="49" ht="20.05" customHeight="1" spans="1:18">
       <c r="A49" s="11">
-        <v>44547</v>
+        <v>44565</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
     </row>
     <row r="50" ht="20.05" customHeight="1" spans="1:18">
       <c r="A50" s="11">
-        <v>44548</v>
+        <v>44566</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
     </row>
     <row r="51" ht="20.05" customHeight="1" spans="1:18">
       <c r="A51" s="11">
-        <v>44549</v>
+        <v>44567</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
     </row>
     <row r="52" ht="20.05" customHeight="1" spans="1:18">
       <c r="A52" s="11">
-        <v>44550</v>
+        <v>44568</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
     </row>
     <row r="53" ht="20.05" customHeight="1" spans="1:18">
       <c r="A53" s="11">
-        <v>44551</v>
+        <v>44569</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
     </row>
     <row r="54" ht="20.05" customHeight="1" spans="1:18">
       <c r="A54" s="11">
-        <v>44552</v>
+        <v>44570</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A55" s="11">
-        <v>44553</v>
-      </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A56" s="11">
-        <v>44554</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A57" s="11">
-        <v>44555</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A58" s="11">
-        <v>44556</v>
-      </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A59" s="11">
-        <v>44557</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A60" s="11">
-        <v>44558</v>
-      </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-    </row>
-    <row r="61" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A61" s="11">
-        <v>44559</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A62" s="11">
-        <v>44560</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-    </row>
-    <row r="63" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A63" s="11">
-        <v>44561</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-    </row>
-    <row r="64" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A64" s="11">
-        <v>44562</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A65" s="11">
-        <v>44563</v>
-      </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-    </row>
-    <row r="66" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A66" s="11">
-        <v>44564</v>
-      </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-    </row>
-    <row r="67" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A67" s="11">
-        <v>44565</v>
-      </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A68" s="11">
-        <v>44566</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-    </row>
-    <row r="69" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A69" s="11">
-        <v>44567</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A70" s="11">
-        <v>44568</v>
-      </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-    </row>
-    <row r="71" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A71" s="11">
-        <v>44569</v>
-      </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-    </row>
-    <row r="72" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A72" s="11">
-        <v>44570</v>
-      </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>表格 1</t>
   </si>
@@ -86,6 +86,9 @@
     <t>富时100指数</t>
   </si>
   <si>
+    <t>DAX30种股价指数</t>
+  </si>
+  <si>
     <t>恒生指数</t>
   </si>
   <si>
@@ -119,11 +122,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -162,14 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,18 +179,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,10 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,22 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -251,11 +247,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,24 +262,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,8 +299,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,7 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +416,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,19 +440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,13 +470,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,79 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +629,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -641,13 +644,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -686,15 +689,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -725,21 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -766,6 +745,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -780,157 +768,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -958,46 +961,37 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2180,18 +2174,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="1" max="16383" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="16.3482142857143" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:18">
+    <row r="1" ht="31" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2211,9 +2206,10 @@
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="25"/>
-    </row>
-    <row r="2" ht="22.55" customHeight="1" spans="1:18">
+      <c r="R1" s="4"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="2" ht="22.55" customHeight="1" spans="1:19">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2233,15 +2229,16 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="26"/>
-    </row>
-    <row r="3" ht="34.25" customHeight="1" spans="1:18">
+      <c r="S2" s="23"/>
+    </row>
+    <row r="3" ht="34.25" customHeight="1" spans="1:19">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
@@ -2250,26 +2247,27 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="24" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="24" t="s">
+      <c r="O3" s="16"/>
+      <c r="P3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1" spans="1:18">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" ht="22.35" customHeight="1" spans="1:19">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>9</v>
@@ -2283,1164 +2281,1173 @@
       <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1" spans="1:18">
+      <c r="O4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1" spans="1:19">
       <c r="A5" s="11">
-        <v>44521</v>
-      </c>
-      <c r="B5" s="12">
-        <v>35601.98</v>
-      </c>
-      <c r="C5" s="12">
-        <v>16057.44</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4697.96</v>
-      </c>
-      <c r="E5" s="12">
-        <v>7225.86</v>
-      </c>
-      <c r="F5" s="12">
-        <v>25049.97</v>
-      </c>
-      <c r="G5" s="18">
-        <v>3560.37</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1" spans="1:18">
+        <v>44523</v>
+      </c>
+      <c r="B5" s="10">
+        <v>35619.25</v>
+      </c>
+      <c r="C5" s="10">
+        <v>15854.76</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4682.94</v>
+      </c>
+      <c r="E5" s="10">
+        <v>7256.2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>16118.27</v>
+      </c>
+      <c r="G5" s="10">
+        <v>24698.49</v>
+      </c>
+      <c r="H5" s="14">
+        <v>3597.53</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1" spans="1:19">
       <c r="A6" s="11">
-        <v>44522</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1" spans="1:18">
+        <v>44524</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1" spans="1:19">
       <c r="A7" s="11">
-        <v>44523</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1" spans="1:18">
+        <v>44525</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1" spans="1:19">
       <c r="A8" s="11">
-        <v>44524</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1" spans="1:18">
+        <v>44526</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1" spans="1:19">
       <c r="A9" s="11">
-        <v>44525</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1" spans="1:18">
+        <v>44527</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1" spans="1:19">
       <c r="A10" s="11">
-        <v>44526</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1" spans="1:18">
+        <v>44528</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1" spans="1:19">
       <c r="A11" s="11">
-        <v>44527</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1" spans="1:18">
+        <v>44529</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1" spans="1:19">
       <c r="A12" s="11">
-        <v>44528</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1" spans="1:18">
+        <v>44530</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1" spans="1:19">
       <c r="A13" s="11">
-        <v>44529</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1" spans="1:18">
+        <v>44531</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1" spans="1:19">
       <c r="A14" s="11">
-        <v>44530</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1" spans="1:18">
+        <v>44532</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1" spans="1:19">
       <c r="A15" s="11">
-        <v>44531</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1" spans="1:18">
+        <v>44533</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1" spans="1:19">
       <c r="A16" s="11">
-        <v>44532</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1" spans="1:18">
+        <v>44534</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1" spans="1:19">
       <c r="A17" s="11">
-        <v>44533</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1" spans="1:18">
+        <v>44535</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1" spans="1:19">
       <c r="A18" s="11">
-        <v>44534</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1" spans="1:18">
+        <v>44536</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1" spans="1:19">
       <c r="A19" s="11">
-        <v>44535</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1" spans="1:18">
+        <v>44537</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1" spans="1:19">
       <c r="A20" s="11">
-        <v>44536</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1" spans="1:18">
+        <v>44538</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1" spans="1:19">
       <c r="A21" s="11">
-        <v>44537</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1" spans="1:18">
+        <v>44539</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1" spans="1:19">
       <c r="A22" s="11">
-        <v>44538</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1" spans="1:18">
+        <v>44540</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1" spans="1:19">
       <c r="A23" s="11">
-        <v>44539</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1" spans="1:18">
+        <v>44541</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1" spans="1:19">
       <c r="A24" s="11">
-        <v>44540</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1" spans="1:18">
+        <v>44542</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1" spans="1:19">
       <c r="A25" s="11">
-        <v>44541</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1" spans="1:18">
+        <v>44543</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1" spans="1:19">
       <c r="A26" s="11">
-        <v>44542</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1" spans="1:18">
+        <v>44544</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1" spans="1:19">
       <c r="A27" s="11">
-        <v>44543</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1" spans="1:18">
+        <v>44545</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1" spans="1:19">
       <c r="A28" s="11">
-        <v>44544</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1" spans="1:18">
+        <v>44546</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1" spans="1:19">
       <c r="A29" s="11">
-        <v>44545</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1" spans="1:18">
+        <v>44547</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1" spans="1:19">
       <c r="A30" s="11">
-        <v>44546</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1" spans="1:18">
+        <v>44548</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1" spans="1:19">
       <c r="A31" s="11">
-        <v>44547</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1" spans="1:18">
+        <v>44549</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1" spans="1:19">
       <c r="A32" s="11">
-        <v>44548</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1" spans="1:18">
+        <v>44550</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1" spans="1:19">
       <c r="A33" s="11">
-        <v>44549</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1" spans="1:18">
+        <v>44551</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1" spans="1:19">
       <c r="A34" s="11">
-        <v>44550</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1" spans="1:18">
+        <v>44552</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1" spans="1:19">
       <c r="A35" s="11">
-        <v>44551</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1" spans="1:18">
+        <v>44553</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1" spans="1:19">
       <c r="A36" s="11">
-        <v>44552</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1" spans="1:18">
+        <v>44554</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1" spans="1:19">
       <c r="A37" s="11">
-        <v>44553</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-    </row>
-    <row r="38" ht="20.05" customHeight="1" spans="1:18">
+        <v>44555</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1" spans="1:19">
       <c r="A38" s="11">
-        <v>44554</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-    </row>
-    <row r="39" ht="20.05" customHeight="1" spans="1:18">
+        <v>44556</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1" spans="1:19">
       <c r="A39" s="11">
-        <v>44555</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1" spans="1:18">
+        <v>44557</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1" spans="1:19">
       <c r="A40" s="11">
-        <v>44556</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1" spans="1:18">
+        <v>44558</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1" spans="1:19">
       <c r="A41" s="11">
-        <v>44557</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="23"/>
-    </row>
-    <row r="42" ht="20.05" customHeight="1" spans="1:18">
+        <v>44559</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1" spans="1:19">
       <c r="A42" s="11">
-        <v>44558</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-    </row>
-    <row r="43" ht="20.05" customHeight="1" spans="1:18">
+        <v>44560</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1" spans="1:19">
       <c r="A43" s="11">
-        <v>44559</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-    </row>
-    <row r="44" ht="20.05" customHeight="1" spans="1:18">
+        <v>44561</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1" spans="1:19">
       <c r="A44" s="11">
-        <v>44560</v>
-      </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1" spans="1:18">
+        <v>44562</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1" spans="1:19">
       <c r="A45" s="11">
-        <v>44561</v>
-      </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-    </row>
-    <row r="46" ht="20.05" customHeight="1" spans="1:18">
+        <v>44563</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1" spans="1:19">
       <c r="A46" s="11">
-        <v>44562</v>
-      </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1" spans="1:18">
+        <v>44564</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1" spans="1:19">
       <c r="A47" s="11">
-        <v>44563</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1" spans="1:18">
+        <v>44565</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1" spans="1:19">
       <c r="A48" s="11">
-        <v>44564</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1" spans="1:18">
+        <v>44566</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1" spans="1:19">
       <c r="A49" s="11">
-        <v>44565</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1" spans="1:18">
+        <v>44567</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1" spans="1:19">
       <c r="A50" s="11">
-        <v>44566</v>
-      </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-    </row>
-    <row r="51" ht="20.05" customHeight="1" spans="1:18">
+        <v>44568</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1" spans="1:19">
       <c r="A51" s="11">
-        <v>44567</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1" spans="1:18">
+        <v>44569</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1" spans="1:19">
       <c r="A52" s="11">
-        <v>44568</v>
-      </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A53" s="11">
-        <v>44569</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1" spans="1:18">
-      <c r="A54" s="11">
         <v>44570</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A3:A4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="股票市场"/>
-    <hyperlink ref="H3" r:id="rId2" display="外汇市场"/>
-    <hyperlink ref="M3" r:id="rId3" display="大宗商品&#10;"/>
-    <hyperlink ref="O3" r:id="rId4" display="债券市场"/>
+    <hyperlink ref="I3" r:id="rId2" display="外汇市场"/>
+    <hyperlink ref="N3" r:id="rId3" display="大宗商品&#10;"/>
+    <hyperlink ref="P3" r:id="rId4" display="债券市场"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
   <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -962,10 +962,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -974,10 +974,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2177,7 +2177,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="I3" sqref="I3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -38,14 +38,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
       <t>大宗商品</t>
     </r>
     <r>
@@ -61,17 +53,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>债券市场</t>
-    </r>
+    <t>债券市场</t>
   </si>
   <si>
     <t>道琼斯指数</t>
@@ -160,6 +142,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color indexed="15"/>
       <name val="方正书宋_GBK"/>
       <charset val="134"/>
     </font>
@@ -313,14 +303,6 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color indexed="15"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -788,148 +770,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +979,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2176,8 +2158,8 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:M3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -38,6 +38,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
       <t>大宗商品</t>
     </r>
     <r>
@@ -103,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -155,7 +163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,31 +184,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +203,13 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +229,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -231,7 +254,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,37 +284,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,22 +312,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -332,7 +340,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,19 +400,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,151 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,8 +679,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +689,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,6 +720,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,141 +773,102 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,49 +877,49 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -943,22 +951,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2158,8 +2166,8 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -2339,13 +2347,27 @@
       <c r="A6" s="11">
         <v>44524</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="10">
+        <v>35813.8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>15775.14</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4690.7</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7269.61</v>
+      </c>
+      <c r="F6" s="10">
+        <v>15963.15</v>
+      </c>
+      <c r="G6" s="10">
+        <v>24614.44</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3586.47</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -111,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -176,14 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
@@ -193,7 +185,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,6 +222,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -221,9 +237,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,14 +298,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -252,62 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +346,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +364,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,19 +424,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,19 +466,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,109 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,24 +687,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +716,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,28 +759,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,142 +778,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2164,10 +2164,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -2308,28 +2308,28 @@
     </row>
     <row r="5" ht="20.05" customHeight="1" spans="1:19">
       <c r="A5" s="11">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="B5" s="10">
-        <v>35619.25</v>
+        <v>35813.8</v>
       </c>
       <c r="C5" s="10">
-        <v>15854.76</v>
+        <v>15775.14</v>
       </c>
       <c r="D5" s="10">
-        <v>4682.94</v>
+        <v>4690.7</v>
       </c>
       <c r="E5" s="10">
-        <v>7256.2</v>
+        <v>7303.39</v>
       </c>
       <c r="F5" s="10">
-        <v>16118.27</v>
+        <v>15948.85</v>
       </c>
       <c r="G5" s="10">
-        <v>24698.49</v>
+        <v>24685.5</v>
       </c>
       <c r="H5" s="14">
-        <v>3597.53</v>
+        <v>3592.7</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
@@ -2345,29 +2345,15 @@
     </row>
     <row r="6" ht="20.05" customHeight="1" spans="1:19">
       <c r="A6" s="11">
-        <v>44524</v>
-      </c>
-      <c r="B6" s="10">
-        <v>35813.8</v>
-      </c>
-      <c r="C6" s="10">
-        <v>15775.14</v>
-      </c>
-      <c r="D6" s="10">
-        <v>4690.7</v>
-      </c>
-      <c r="E6" s="10">
-        <v>7269.61</v>
-      </c>
-      <c r="F6" s="10">
-        <v>15963.15</v>
-      </c>
-      <c r="G6" s="10">
-        <v>24614.44</v>
-      </c>
-      <c r="H6" s="14">
-        <v>3586.47</v>
-      </c>
+        <v>44525</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="19"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -2382,7 +2368,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1" spans="1:19">
       <c r="A7" s="11">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2405,7 +2391,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:19">
       <c r="A8" s="11">
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2428,7 +2414,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1" spans="1:19">
       <c r="A9" s="11">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2451,7 +2437,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1" spans="1:19">
       <c r="A10" s="11">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2474,7 +2460,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1" spans="1:19">
       <c r="A11" s="11">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2497,7 +2483,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1" spans="1:19">
       <c r="A12" s="11">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2520,7 +2506,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1" spans="1:19">
       <c r="A13" s="11">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2543,7 +2529,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1" spans="1:19">
       <c r="A14" s="11">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2566,7 +2552,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1" spans="1:19">
       <c r="A15" s="11">
-        <v>44533</v>
+        <v>44534</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2589,7 +2575,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1" spans="1:19">
       <c r="A16" s="11">
-        <v>44534</v>
+        <v>44535</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2612,7 +2598,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1" spans="1:19">
       <c r="A17" s="11">
-        <v>44535</v>
+        <v>44536</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2635,7 +2621,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1" spans="1:19">
       <c r="A18" s="11">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2658,7 +2644,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1" spans="1:19">
       <c r="A19" s="11">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2681,7 +2667,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1" spans="1:19">
       <c r="A20" s="11">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2704,7 +2690,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1" spans="1:19">
       <c r="A21" s="11">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2727,7 +2713,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1" spans="1:19">
       <c r="A22" s="11">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2750,7 +2736,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1" spans="1:19">
       <c r="A23" s="11">
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2773,7 +2759,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1" spans="1:19">
       <c r="A24" s="11">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2796,7 +2782,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1" spans="1:19">
       <c r="A25" s="11">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2819,7 +2805,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1" spans="1:19">
       <c r="A26" s="11">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2842,7 +2828,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1" spans="1:19">
       <c r="A27" s="11">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2865,7 +2851,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1" spans="1:19">
       <c r="A28" s="11">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2888,7 +2874,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1" spans="1:19">
       <c r="A29" s="11">
-        <v>44547</v>
+        <v>44548</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2911,7 +2897,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1" spans="1:19">
       <c r="A30" s="11">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2934,7 +2920,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1" spans="1:19">
       <c r="A31" s="11">
-        <v>44549</v>
+        <v>44550</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2957,7 +2943,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1" spans="1:19">
       <c r="A32" s="11">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2980,7 +2966,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1" spans="1:19">
       <c r="A33" s="11">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3003,7 +2989,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1" spans="1:19">
       <c r="A34" s="11">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3026,7 +3012,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1" spans="1:19">
       <c r="A35" s="11">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3049,7 +3035,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1" spans="1:19">
       <c r="A36" s="11">
-        <v>44554</v>
+        <v>44555</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3072,7 +3058,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1" spans="1:19">
       <c r="A37" s="11">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -3095,7 +3081,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1" spans="1:19">
       <c r="A38" s="11">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -3118,7 +3104,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1" spans="1:19">
       <c r="A39" s="11">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -3141,7 +3127,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1" spans="1:19">
       <c r="A40" s="11">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -3164,7 +3150,7 @@
     </row>
     <row r="41" ht="20.05" customHeight="1" spans="1:19">
       <c r="A41" s="11">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -3187,7 +3173,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1" spans="1:19">
       <c r="A42" s="11">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -3210,7 +3196,7 @@
     </row>
     <row r="43" ht="20.05" customHeight="1" spans="1:19">
       <c r="A43" s="11">
-        <v>44561</v>
+        <v>44562</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -3233,7 +3219,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1" spans="1:19">
       <c r="A44" s="11">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -3256,7 +3242,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1" spans="1:19">
       <c r="A45" s="11">
-        <v>44563</v>
+        <v>44564</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -3279,7 +3265,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1" spans="1:19">
       <c r="A46" s="11">
-        <v>44564</v>
+        <v>44565</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -3302,7 +3288,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1" spans="1:19">
       <c r="A47" s="11">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -3325,7 +3311,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1" spans="1:19">
       <c r="A48" s="11">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -3348,7 +3334,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1" spans="1:19">
       <c r="A49" s="11">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -3371,7 +3357,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1" spans="1:19">
       <c r="A50" s="11">
-        <v>44568</v>
+        <v>44569</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -3394,7 +3380,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1" spans="1:19">
       <c r="A51" s="11">
-        <v>44569</v>
+        <v>44570</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -3414,29 +3400,6 @@
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
       <c r="S51" s="20"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1" spans="1:19">
-      <c r="A52" s="11">
-        <v>44570</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/我的创作/炒股/每日功课.xlsx
+++ b/我的创作/炒股/每日功课.xlsx
@@ -113,10 +113,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -163,21 +163,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +222,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -199,31 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,24 +292,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,37 +312,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -346,7 +346,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,84 +502,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,73 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,65 +679,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -760,6 +701,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -773,153 +755,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1"/>
@@ -2347,13 +2347,27 @@
       <c r="A6" s="11">
         <v>44525</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="10">
+        <v>35804</v>
+      </c>
+      <c r="C6" s="10">
+        <v>15845.23</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4701.46</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7297.62</v>
+      </c>
+      <c r="F6" s="10">
+        <v>15928.55</v>
+      </c>
+      <c r="G6" s="10">
+        <v>24740.16</v>
+      </c>
+      <c r="H6" s="14">
+        <v>3584.18</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
